--- a/public/reports/reciept_voucher_g.xlsx
+++ b/public/reports/reciept_voucher_g.xlsx
@@ -30,43 +30,43 @@
     <t>CUSTOMER:</t>
   </si>
   <si>
-    <t>Affan uniforms co.</t>
+    <t>Dream uniforms</t>
   </si>
   <si>
     <t>INVOICE No:</t>
   </si>
   <si>
-    <t>iv/Affan uniforms co./2019/1</t>
+    <t>iv/Dream uniforms/2019/4</t>
   </si>
   <si>
     <t>ADDRESS:</t>
   </si>
   <si>
-    <t>abc street/Khi</t>
+    <t>ASD street/Dubai</t>
   </si>
   <si>
     <t>INVOICE Date:</t>
   </si>
   <si>
-    <t>2019-01-14</t>
+    <t>2019-01-12</t>
   </si>
   <si>
     <t>CONTACT PERSON:</t>
   </si>
   <si>
-    <t>Affan</t>
+    <t>Mr Riaz</t>
   </si>
   <si>
     <t>PURCHASE ORDER  #</t>
   </si>
   <si>
-    <t>lpo/Affan uniforms co./500</t>
+    <t>lpo/Dream uniforms/73315</t>
   </si>
   <si>
     <t>TEL:</t>
   </si>
   <si>
-    <t>09000</t>
+    <t>09001234</t>
   </si>
   <si>
     <t>Paying</t>
@@ -78,13 +78,13 @@
     <t>Balance</t>
   </si>
   <si>
-    <t>14000</t>
+    <t>28500</t>
   </si>
   <si>
-    <t>15000.00</t>
+    <t>28500.00</t>
   </si>
   <si>
-    <t>1000.00</t>
+    <t>0.00</t>
   </si>
   <si>
     <t>Goods once sold will not be taken back or exchanged after 1 week</t>
